--- a/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>Same as repayment period</t>
   </si>
   <si>
-    <t>248MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -657,10 +657,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -812,12 +812,12 @@
         <v>35</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4">
         <v>42005</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="8">
         <v>10000</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>20</v>
@@ -969,7 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -979,10 +981,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>productname</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
 </sst>
 </file>
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -764,201 +767,209 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>42005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B30" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B31" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
+    <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
+    <sheet name="ProductLoanOutput" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>productname</t>
   </si>
@@ -194,9 +194,6 @@
     <t>maximumtranchecount</t>
   </si>
   <si>
-    <t>maximumallowedoutstandingbalance</t>
-  </si>
-  <si>
     <t xml:space="preserve">  01 January 2015</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>frequencydateforrecalculation</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -301,6 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +609,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -619,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -641,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -756,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,10 +789,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -812,12 +816,12 @@
         <v>35</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="12">
         <v>1</v>
@@ -825,7 +829,7 @@
     </row>
     <row r="27" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="7">
         <v>42005</v>
@@ -848,8 +852,8 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>59</v>
+      <c r="A30" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="12">
         <v>10000</v>
@@ -961,9 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -972,11 +974,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+      <c r="A1" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>productname</t>
   </si>
@@ -131,12 +131,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Reduce number of installments</t>
   </si>
   <si>
@@ -225,6 +219,15 @@
   </si>
   <si>
     <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -283,14 +286,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -298,7 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -606,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -618,341 +617,346 @@
     <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="12" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="7">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -974,11 +978,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>69</v>
+      <c r="A1" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t xml:space="preserve">  01 January 2015</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>Same as repayment period</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>248-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -304,6 +304,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -622,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -657,10 +660,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,8 +750,8 @@
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>58</v>
+      <c r="B17" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -756,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,10 +788,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -812,12 +815,12 @@
         <v>35</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -825,7 +828,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4">
         <v>42005</v>
@@ -849,7 +852,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="8">
         <v>10000</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>20</v>
@@ -969,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -981,10 +984,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
